--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="assignment#1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -303,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +381,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,103 +713,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
         <v>43899</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="29">
         <v>43910</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="30">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
         <v>43899</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="29">
         <v>43910</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="30">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
         <v>43899</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="29">
         <v>43910</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="30">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
         <v>43899</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="29">
         <v>43910</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="30">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
         <v>43899</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="29">
         <v>43910</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="30">
         <v>11</v>
       </c>
     </row>
@@ -986,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
